--- a/training_spacy/gold-standard/entity_data.xlsx
+++ b/training_spacy/gold-standard/entity_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaarmstrong/Desktop/contingent-plan-executor/training_spacy/gold-standard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA40F60-F8A8-0141-B851-60175AA07C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE7416E-142F-8B44-AA8A-601FD2215767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25780" windowHeight="16440" xr2:uid="{0035BE3F-1E58-874C-B2FD-8BA3574D7306}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>utterance</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>"PHONE_NUMBER"</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -588,15 +591,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE64575-9834-AC4F-8CE4-DF19021BC1B3}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="69.5" customWidth="1"/>
+    <col min="1" max="1" width="81.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -708,7 +712,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>32</v>
@@ -716,7 +720,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
@@ -724,7 +728,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
@@ -732,18 +736,15 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
@@ -754,7 +755,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>28</v>
@@ -765,18 +766,18 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>27</v>
@@ -787,7 +788,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -798,18 +799,18 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>26</v>
@@ -820,7 +821,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>26</v>
@@ -831,18 +832,18 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
@@ -853,7 +854,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>30</v>
@@ -861,22 +862,22 @@
       <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -887,7 +888,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
@@ -898,18 +899,18 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
@@ -920,7 +921,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
@@ -931,26 +932,26 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>33</v>
@@ -961,7 +962,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>33</v>
@@ -971,17 +972,15 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1"/>
@@ -1009,6 +1008,19 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
